--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf13-Fas.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf13-Fas.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5253763333333333</v>
+        <v>1.342908333333333</v>
       </c>
       <c r="H2">
-        <v>1.576129</v>
+        <v>4.028725</v>
       </c>
       <c r="I2">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="J2">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.76206733333333</v>
+        <v>8.333446333333333</v>
       </c>
       <c r="N2">
-        <v>56.286202</v>
+        <v>25.000339</v>
       </c>
       <c r="O2">
-        <v>0.5119187575860197</v>
+        <v>0.3294294409523786</v>
       </c>
       <c r="P2">
-        <v>0.5119187575860197</v>
+        <v>0.3294294409523787</v>
       </c>
       <c r="Q2">
-        <v>9.857146141339776</v>
+        <v>11.19105452641944</v>
       </c>
       <c r="R2">
-        <v>88.714315272058</v>
+        <v>100.719490737775</v>
       </c>
       <c r="S2">
-        <v>0.0425678177840622</v>
+        <v>0.09484350411136525</v>
       </c>
       <c r="T2">
-        <v>0.0425678177840622</v>
+        <v>0.09484350411136526</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5253763333333333</v>
+        <v>1.342908333333333</v>
       </c>
       <c r="H3">
-        <v>1.576129</v>
+        <v>4.028725</v>
       </c>
       <c r="I3">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="J3">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>27.159969</v>
       </c>
       <c r="O3">
-        <v>0.2470178674794013</v>
+        <v>0.357886883212021</v>
       </c>
       <c r="P3">
-        <v>0.2470178674794012</v>
+        <v>0.357886883212021</v>
       </c>
       <c r="Q3">
-        <v>4.756401642222333</v>
+        <v>12.15778290105833</v>
       </c>
       <c r="R3">
-        <v>42.807614780001</v>
+        <v>109.420046109525</v>
       </c>
       <c r="S3">
-        <v>0.02054039125632918</v>
+        <v>0.1030364680861348</v>
       </c>
       <c r="T3">
-        <v>0.02054039125632918</v>
+        <v>0.1030364680861348</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5253763333333333</v>
+        <v>1.342908333333333</v>
       </c>
       <c r="H4">
-        <v>1.576129</v>
+        <v>4.028725</v>
       </c>
       <c r="I4">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="J4">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.147854</v>
+        <v>4.309709000000001</v>
       </c>
       <c r="N4">
-        <v>12.443562</v>
+        <v>12.929127</v>
       </c>
       <c r="O4">
-        <v>0.1131732569020132</v>
+        <v>0.170367093006711</v>
       </c>
       <c r="P4">
-        <v>0.1131732569020131</v>
+        <v>0.170367093006711</v>
       </c>
       <c r="Q4">
-        <v>2.179184325722</v>
+        <v>5.787544130341667</v>
       </c>
       <c r="R4">
-        <v>19.612658931498</v>
+        <v>52.087897173075</v>
       </c>
       <c r="S4">
-        <v>0.00941074830027936</v>
+        <v>0.04904908328566519</v>
       </c>
       <c r="T4">
-        <v>0.009410748300279357</v>
+        <v>0.04904908328566519</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5253763333333333</v>
+        <v>1.342908333333333</v>
       </c>
       <c r="H5">
-        <v>1.576129</v>
+        <v>4.028725</v>
       </c>
       <c r="I5">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="J5">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.687234</v>
+        <v>3.600126333333333</v>
       </c>
       <c r="N5">
-        <v>14.061702</v>
+        <v>10.800379</v>
       </c>
       <c r="O5">
-        <v>0.1278901180325659</v>
+        <v>0.1423165828288893</v>
       </c>
       <c r="P5">
-        <v>0.1278901180325659</v>
+        <v>0.1423165828288893</v>
       </c>
       <c r="Q5">
-        <v>2.462561812395333</v>
+        <v>4.834639654086111</v>
       </c>
       <c r="R5">
-        <v>22.163056311558</v>
+        <v>43.511756886775</v>
       </c>
       <c r="S5">
-        <v>0.01063450627686308</v>
+        <v>0.04097327600600947</v>
       </c>
       <c r="T5">
-        <v>0.01063450627686308</v>
+        <v>0.04097327600600947</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4963216666666667</v>
+        <v>0.4963216666666666</v>
       </c>
       <c r="H6">
         <v>1.488965</v>
       </c>
       <c r="I6">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="J6">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.76206733333333</v>
+        <v>8.333446333333333</v>
       </c>
       <c r="N6">
-        <v>56.286202</v>
+        <v>25.000339</v>
       </c>
       <c r="O6">
-        <v>0.5119187575860197</v>
+        <v>0.3294294409523786</v>
       </c>
       <c r="P6">
-        <v>0.5119187575860197</v>
+        <v>0.3294294409523787</v>
       </c>
       <c r="Q6">
-        <v>9.312020528992221</v>
+        <v>4.136069973237221</v>
       </c>
       <c r="R6">
-        <v>83.80818476093</v>
+        <v>37.224629759135</v>
       </c>
       <c r="S6">
-        <v>0.0402137076386807</v>
+        <v>0.03505294059514585</v>
       </c>
       <c r="T6">
-        <v>0.0402137076386807</v>
+        <v>0.03505294059514585</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4963216666666667</v>
+        <v>0.4963216666666666</v>
       </c>
       <c r="H7">
         <v>1.488965</v>
       </c>
       <c r="I7">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="J7">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>27.159969</v>
       </c>
       <c r="O7">
-        <v>0.2470178674794013</v>
+        <v>0.357886883212021</v>
       </c>
       <c r="P7">
-        <v>0.2470178674794012</v>
+        <v>0.357886883212021</v>
       </c>
       <c r="Q7">
-        <v>4.493360360231667</v>
+        <v>4.493360360231666</v>
       </c>
       <c r="R7">
-        <v>40.440243242085</v>
+        <v>40.44024324208499</v>
       </c>
       <c r="S7">
-        <v>0.01940445462711503</v>
+        <v>0.03808095481917276</v>
       </c>
       <c r="T7">
-        <v>0.01940445462711503</v>
+        <v>0.03808095481917276</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4963216666666667</v>
+        <v>0.4963216666666666</v>
       </c>
       <c r="H8">
         <v>1.488965</v>
       </c>
       <c r="I8">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="J8">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.147854</v>
+        <v>4.309709000000001</v>
       </c>
       <c r="N8">
-        <v>12.443562</v>
+        <v>12.929127</v>
       </c>
       <c r="O8">
-        <v>0.1131732569020132</v>
+        <v>0.170367093006711</v>
       </c>
       <c r="P8">
-        <v>0.1131732569020131</v>
+        <v>0.170367093006711</v>
       </c>
       <c r="Q8">
-        <v>2.05866981037</v>
+        <v>2.139001953728334</v>
       </c>
       <c r="R8">
-        <v>18.52802829333</v>
+        <v>19.251017583555</v>
       </c>
       <c r="S8">
-        <v>0.008890309640216922</v>
+        <v>0.01812791101265052</v>
       </c>
       <c r="T8">
-        <v>0.00889030964021692</v>
+        <v>0.01812791101265052</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4963216666666667</v>
+        <v>0.4963216666666666</v>
       </c>
       <c r="H9">
         <v>1.488965</v>
       </c>
       <c r="I9">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="J9">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.687234</v>
+        <v>3.600126333333333</v>
       </c>
       <c r="N9">
-        <v>14.061702</v>
+        <v>10.800379</v>
       </c>
       <c r="O9">
-        <v>0.1278901180325659</v>
+        <v>0.1423165828288893</v>
       </c>
       <c r="P9">
-        <v>0.1278901180325659</v>
+        <v>0.1423165828288893</v>
       </c>
       <c r="Q9">
-        <v>2.326375790936667</v>
+        <v>1.786820701970555</v>
       </c>
       <c r="R9">
-        <v>20.93738211843</v>
+        <v>16.081386317735</v>
       </c>
       <c r="S9">
-        <v>0.01004639064348758</v>
+        <v>0.01514319639793927</v>
       </c>
       <c r="T9">
-        <v>0.01004639064348758</v>
+        <v>0.01514319639793927</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2246166666666667</v>
+        <v>0.1501973333333333</v>
       </c>
       <c r="H10">
-        <v>0.6738499999999999</v>
+        <v>0.450592</v>
       </c>
       <c r="I10">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="J10">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.76206733333333</v>
+        <v>8.333446333333333</v>
       </c>
       <c r="N10">
-        <v>56.286202</v>
+        <v>25.000339</v>
       </c>
       <c r="O10">
-        <v>0.5119187575860197</v>
+        <v>0.3294294409523786</v>
       </c>
       <c r="P10">
-        <v>0.5119187575860197</v>
+        <v>0.3294294409523787</v>
       </c>
       <c r="Q10">
-        <v>4.214273024188889</v>
+        <v>1.251661416743111</v>
       </c>
       <c r="R10">
-        <v>37.92845721769999</v>
+        <v>11.264952750688</v>
       </c>
       <c r="S10">
-        <v>0.0181992235494622</v>
+        <v>0.01060775411688519</v>
       </c>
       <c r="T10">
-        <v>0.0181992235494622</v>
+        <v>0.01060775411688519</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.2246166666666667</v>
+        <v>0.1501973333333333</v>
       </c>
       <c r="H11">
-        <v>0.6738499999999999</v>
+        <v>0.450592</v>
       </c>
       <c r="I11">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="J11">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>27.159969</v>
       </c>
       <c r="O11">
-        <v>0.2470178674794013</v>
+        <v>0.357886883212021</v>
       </c>
       <c r="P11">
-        <v>0.2470178674794012</v>
+        <v>0.357886883212021</v>
       </c>
       <c r="Q11">
-        <v>2.033527234516666</v>
+        <v>1.359784972405333</v>
       </c>
       <c r="R11">
-        <v>18.30174511065</v>
+        <v>12.238064751648</v>
       </c>
       <c r="S11">
-        <v>0.008781732109540157</v>
+        <v>0.01152409465224548</v>
       </c>
       <c r="T11">
-        <v>0.008781732109540155</v>
+        <v>0.01152409465224548</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2246166666666667</v>
+        <v>0.1501973333333333</v>
       </c>
       <c r="H12">
-        <v>0.6738499999999999</v>
+        <v>0.450592</v>
       </c>
       <c r="I12">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="J12">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.147854</v>
+        <v>4.309709000000001</v>
       </c>
       <c r="N12">
-        <v>12.443562</v>
+        <v>12.929127</v>
       </c>
       <c r="O12">
-        <v>0.1131732569020132</v>
+        <v>0.170367093006711</v>
       </c>
       <c r="P12">
-        <v>0.1131732569020131</v>
+        <v>0.170367093006711</v>
       </c>
       <c r="Q12">
-        <v>0.9316771393</v>
+        <v>0.6473067992426668</v>
       </c>
       <c r="R12">
-        <v>8.385094253699998</v>
+        <v>5.825761193184</v>
       </c>
       <c r="S12">
-        <v>0.004023422411581315</v>
+        <v>0.005485885617870282</v>
       </c>
       <c r="T12">
-        <v>0.004023422411581314</v>
+        <v>0.005485885617870281</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2246166666666667</v>
+        <v>0.1501973333333333</v>
       </c>
       <c r="H13">
-        <v>0.6738499999999999</v>
+        <v>0.450592</v>
       </c>
       <c r="I13">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="J13">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.687234</v>
+        <v>3.600126333333333</v>
       </c>
       <c r="N13">
-        <v>14.061702</v>
+        <v>10.800379</v>
       </c>
       <c r="O13">
-        <v>0.1278901180325659</v>
+        <v>0.1423165828288893</v>
       </c>
       <c r="P13">
-        <v>0.1278901180325659</v>
+        <v>0.1423165828288893</v>
       </c>
       <c r="Q13">
-        <v>1.052830876966667</v>
+        <v>0.5407293749297777</v>
       </c>
       <c r="R13">
-        <v>9.475477892699999</v>
+        <v>4.866564374368</v>
       </c>
       <c r="S13">
-        <v>0.004546621535841408</v>
+        <v>0.004582648451333814</v>
       </c>
       <c r="T13">
-        <v>0.004546621535841408</v>
+        <v>0.004582648451333814</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.071838666666667</v>
+        <v>2.675030666666667</v>
       </c>
       <c r="H14">
-        <v>15.215516</v>
+        <v>8.025092000000001</v>
       </c>
       <c r="I14">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="J14">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.76206733333333</v>
+        <v>8.333446333333333</v>
       </c>
       <c r="N14">
-        <v>56.286202</v>
+        <v>25.000339</v>
       </c>
       <c r="O14">
-        <v>0.5119187575860197</v>
+        <v>0.3294294409523786</v>
       </c>
       <c r="P14">
-        <v>0.5119187575860197</v>
+        <v>0.3294294409523787</v>
       </c>
       <c r="Q14">
-        <v>95.15817856780356</v>
+        <v>22.29222450068756</v>
       </c>
       <c r="R14">
-        <v>856.423607110232</v>
+        <v>200.630020506188</v>
       </c>
       <c r="S14">
-        <v>0.4109380086138146</v>
+        <v>0.1889252421289823</v>
       </c>
       <c r="T14">
-        <v>0.4109380086138146</v>
+        <v>0.1889252421289824</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.071838666666667</v>
+        <v>2.675030666666667</v>
       </c>
       <c r="H15">
-        <v>15.215516</v>
+        <v>8.025092000000001</v>
       </c>
       <c r="I15">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="J15">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>27.159969</v>
       </c>
       <c r="O15">
-        <v>0.2470178674794013</v>
+        <v>0.357886883212021</v>
       </c>
       <c r="P15">
-        <v>0.2470178674794012</v>
+        <v>0.357886883212021</v>
       </c>
       <c r="Q15">
-        <v>45.91699365322267</v>
+        <v>24.21791666023866</v>
       </c>
       <c r="R15">
-        <v>413.252942879004</v>
+        <v>217.961249942148</v>
       </c>
       <c r="S15">
-        <v>0.1982912894864169</v>
+        <v>0.2052453656544679</v>
       </c>
       <c r="T15">
-        <v>0.1982912894864169</v>
+        <v>0.2052453656544679</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.071838666666667</v>
+        <v>2.675030666666667</v>
       </c>
       <c r="H16">
-        <v>15.215516</v>
+        <v>8.025092000000001</v>
       </c>
       <c r="I16">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="J16">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.147854</v>
+        <v>4.309709000000001</v>
       </c>
       <c r="N16">
-        <v>12.443562</v>
+        <v>12.929127</v>
       </c>
       <c r="O16">
-        <v>0.1131732569020132</v>
+        <v>0.170367093006711</v>
       </c>
       <c r="P16">
-        <v>0.1131732569020131</v>
+        <v>0.170367093006711</v>
       </c>
       <c r="Q16">
-        <v>21.037246300888</v>
+        <v>11.52860373940934</v>
       </c>
       <c r="R16">
-        <v>189.335216707992</v>
+        <v>103.757433654684</v>
       </c>
       <c r="S16">
-        <v>0.09084877654993558</v>
+        <v>0.09770421309052504</v>
       </c>
       <c r="T16">
-        <v>0.09084877654993556</v>
+        <v>0.09770421309052503</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.071838666666667</v>
+        <v>2.675030666666667</v>
       </c>
       <c r="H17">
-        <v>15.215516</v>
+        <v>8.025092000000001</v>
       </c>
       <c r="I17">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="J17">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.687234</v>
+        <v>3.600126333333333</v>
       </c>
       <c r="N17">
-        <v>14.061702</v>
+        <v>10.800379</v>
       </c>
       <c r="O17">
-        <v>0.1278901180325659</v>
+        <v>0.1423165828288893</v>
       </c>
       <c r="P17">
-        <v>0.1278901180325659</v>
+        <v>0.1423165828288893</v>
       </c>
       <c r="Q17">
-        <v>23.77289464091467</v>
+        <v>9.63044834554089</v>
       </c>
       <c r="R17">
-        <v>213.956051768232</v>
+        <v>86.674035109868</v>
       </c>
       <c r="S17">
-        <v>0.1026625995763739</v>
+        <v>0.0816174619736067</v>
       </c>
       <c r="T17">
-        <v>0.1026625995763739</v>
+        <v>0.0816174619736067</v>
       </c>
     </row>
   </sheetData>
